--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,18 +4,52 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="5040" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId2"/>
+    <sheet name="createINCPage" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>dr1oR6EvQuTY</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>This is a test incident</t>
+  </si>
+  <si>
+    <t>LoginPageTitle</t>
+  </si>
+  <si>
+    <t>Service Portal - Service Portal</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +365,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>